--- a/pred_ohlcv/54_21/2020-01-20 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 DASH ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-622.1464</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-622.4864</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-622.4814</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-622.4764</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-622.6512</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-622.6462</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-618.4714</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-633.9738</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-640.5113</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-611.0004</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-654.3666000000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-657.5666000000001</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-655.7361000000001</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-655.7214000000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-648.5540999999999</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-624.9739999999999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-624.8396999999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-626.9946999999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-621.0004999999999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-625.5357999999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-864.1183999999998</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-864.1183999999998</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-866.6999246199998</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-872.0225246199999</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-872.0049246199999</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-865.5900246199999</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-852.1800246199999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-846.1280246199999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-834.82802462</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-832.70752462</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-832.70752462</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-832.52752462</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-823.22382462</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-803.9046246199999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-535.7339824500003</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-527.0726354000003</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-531.1092354000003</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-531.1092354000003</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-534.6711354000004</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-536.8485354000004</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-532.8485354000004</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-521.7578354000004</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-530.3108402800004</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-528.8941102000005</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-540.7274102000005</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-540.5811326500004</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-540.5750326500005</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-532.4533215800005</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-532.6282215800005</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-535.6928215800006</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-551.3271215800006</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-537.9101215800006</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-537.9043215800006</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-537.9373215800006</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-534.5251215800006</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-534.5526442800005</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-534.7526442800006</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-566.0947442800006</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-565.5635331100005</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-566.5635331100005</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-566.7072331100005</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-581.8471331100005</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-581.5271331100005</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-581.1452331100005</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-596.2230331100004</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-596.7413331100004</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-659.1567577000004</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-676.5144577000004</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-667.8711577000005</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-652.3223577000005</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-671.1483577000005</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-669.4821577000005</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-669.4821577000005</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-639.9499577000005</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-645.6499577000005</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-612.7103620800004</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-602.0556620800004</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-595.2177620800004</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-565.4162620800004</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-550.2177620800004</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 DASH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 DASH ohlcv.xlsx
@@ -1094,7 +1094,7 @@
         <v>-622.1464</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-622.4864</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-622.4814</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-622.4764</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-622.6512</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-622.6462</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-618.4714</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-633.9738</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-640.5113</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-611.0004</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-654.3666000000001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-657.5666000000001</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-655.7361000000001</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-655.7214000000001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-648.5540999999999</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-687.8194</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-624.9739999999999</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-624.8396999999999</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-626.9946999999999</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-621.0004999999999</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-625.5357999999999</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-927.5692999999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-925.3108999999998</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-912.9729999999998</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-916.8486999999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-916.7591999999999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-918.8095999999998</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-893.8247999999999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-863.7358999999999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-862.8158999999999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-862.9563999999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-863.0085999999999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-861.9162999999999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-864.1183999999998</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-864.1183999999998</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-864.0254999999999</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-866.6999246199998</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-868.2008246199998</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-868.2008246199998</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-871.0226246199999</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-872.0049246199999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-801.8503246199999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-794.9963246199999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-795.4125246199999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-795.4125246199999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-797.8525246199999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-791.1275246199999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-783.0432246199999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-783.0432246199999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-783.0432246199999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-778.49592462</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-777.39048245</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-778.6036824500001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-778.61648245</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-712.26068245</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-670.6453824499999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-593.8587824499999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-589.32598245</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-521.0104824500004</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-535.7339824500003</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-527.0726354000003</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-531.1092354000003</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-531.1092354000003</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-534.6711354000004</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-536.8485354000004</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-532.8485354000004</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-521.7578354000004</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-530.3108402800004</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-528.8941102000005</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-540.7274102000005</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-540.6911326500004</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-540.5811326500004</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-540.5750326500005</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-532.4533215800005</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-532.6282215800005</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-534.6929215800005</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-535.6928215800006</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-551.3271215800006</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-537.9101215800006</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-537.9043215800006</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-537.9373215800006</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-534.5251215800006</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-534.5526442800005</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-534.7526442800006</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-566.7072331100005</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-580.1452331100005</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-586.3302331100004</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-659.1567577000004</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-676.5144577000004</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-667.8711577000005</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-652.3223577000005</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-671.1483577000005</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-669.4821577000005</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-669.4821577000005</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-639.9499577000005</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-645.6499577000005</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-612.7103620800004</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-602.0556620800004</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-595.2177620800004</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-565.4162620800004</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-560.2177620800004</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-550.2177620800004</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-550.3877620800004</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
